--- a/details.xlsx
+++ b/details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANKING_SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4521B-30E0-436E-9DB4-3A0F08ED7D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7DD7F5-1FFC-431D-81D7-17F71FA2390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -56,39 +56,6 @@
   </si>
   <si>
     <t>Date of creation</t>
-  </si>
-  <si>
-    <t>Shaik Roshan Ali</t>
-  </si>
-  <si>
-    <t>855111566</t>
-  </si>
-  <si>
-    <t>Shaik Rafic Ahammad</t>
-  </si>
-  <si>
-    <t>Shaik Shakila Begum</t>
-  </si>
-  <si>
-    <t>Gujjanagundla Guntur</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>26/07/2004</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>9014785786</t>
-  </si>
-  <si>
-    <t>466008052196</t>
-  </si>
-  <si>
-    <t>7602</t>
   </si>
 </sst>
 </file>
@@ -495,42 +462,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3">
-        <v>44716.686418074663</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/details.xlsx
+++ b/details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANKING_SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7DD7F5-1FFC-431D-81D7-17F71FA2390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6ED6E-9F82-46AF-A0BC-B946B68AFBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,12 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -402,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -424,13 +425,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -439,25 +440,25 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -474,6 +475,32 @@
       <c r="K2"/>
       <c r="L2" s="3"/>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/details.xlsx
+++ b/details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANKING_SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6ED6E-9F82-46AF-A0BC-B946B68AFBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1887A3-B311-44F4-A033-6489883E967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -475,31 +475,24 @@
       <c r="K2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3" s="4"/>
+    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4" s="4"/>
+    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/details.xlsx
+++ b/details.xlsx
@@ -1,81 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANKING_SYSTEM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1887A3-B311-44F4-A033-6489883E967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Account no.</t>
-  </si>
-  <si>
-    <t>Father name</t>
-  </si>
-  <si>
-    <t>Mother name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Aadhar</t>
-  </si>
-  <si>
-    <t>Security Pin</t>
-  </si>
-  <si>
-    <t>Date of creation</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,28 +47,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,104 +416,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.21875" style="1" customWidth="1"/>
+    <col width="21.77734375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.6640625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.44140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="19.6640625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23.88671875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="12.109375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12.6640625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.21875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="19.109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="14.21875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="30.21875" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Account no.</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Father name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Mother name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Aadhar</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Security Pin</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Date of creation</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" s="3"/>
+    <row r="2">
+      <c r="L2" s="4" t="n"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="3"/>
+    <row r="3" ht="15.6" customHeight="1" s="1">
+      <c r="L3" s="4" t="n"/>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="3"/>
+    <row r="4" ht="17.4" customHeight="1" s="1">
+      <c r="L4" s="4" t="n"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" s="4"/>
+    <row r="5">
+      <c r="L5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manukonda Bhargav Krishna</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5390768673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Manukonda Srinivasa Rao</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Manukonda Srilatha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Narsraopet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>26/11/2003</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>9618343211</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>63063406247</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>8866</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>44791.57123173377</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>